--- a/docs/PTA3_ADDC_10_3/PTA3_ADDC_10_3_12.11.2024_output.xlsx
+++ b/docs/PTA3_ADDC_10_3/PTA3_ADDC_10_3_12.11.2024_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:N126"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,55 +437,65 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>percent</t>
         </is>
@@ -495,512 +505,7186 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>1731701146.1374614</t>
-        </is>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1731701147.694298</t>
+          <t>GAZP</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>./test_images/MXI1731701146.1374614.png</t>
+          <t>1731876657.530832</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>./test_images/MXI1731701147.694298.png</t>
+          <t>1731876658.4546454</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>short</t>
+          <t>./test_images/GAZP1731876657.530832.png</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
-        <v>2793.4</v>
-      </c>
-      <c r="J3" t="n">
-        <v>2793.1</v>
+          <t>./test_images/GAZP1731876658.4546454.png</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
       </c>
       <c r="K3" t="n">
-        <v>0.3000000000001819</v>
+        <v>136.3</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01</v>
+        <v>136.73</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.4299999999999784</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.32</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>1731701148.7329578</t>
-        </is>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1731701149.546782</t>
+          <t>GAZP</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>./test_images/MXI1731701148.7329578.png</t>
+          <t>1731876660.440342</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>./test_images/MXI1731701149.546782.png</t>
+          <t>1731876662.1618912</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
+          <t>./test_images/GAZP1731876660.440342.png</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>./test_images/GAZP1731876662.1618912.png</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
-        <v>2787.85</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2793.45</v>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
       </c>
       <c r="K4" t="n">
-        <v>5.599999999999909</v>
+        <v>136.46</v>
       </c>
       <c r="L4" t="n">
-        <v>0.2</v>
+        <v>136.52</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.06000000000000227</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>1731701150.547619</t>
-        </is>
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1731701152.4588912</t>
+          <t>GAZP</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>./test_images/MXI1731701150.547619.png</t>
+          <t>1731876663.2275748</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>./test_images/MXI1731701152.4588912.png</t>
+          <t>1731876666.0699084</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
+          <t>./test_images/GAZP1731876663.2275748.png</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>./test_images/GAZP1731876666.0699084.png</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
-        <v>2786.45</v>
-      </c>
-      <c r="J5" t="n">
-        <v>2785.4</v>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
       </c>
       <c r="K5" t="n">
-        <v>-1.049999999999727</v>
+        <v>136.3</v>
       </c>
       <c r="L5" t="n">
-        <v>-0.04</v>
+        <v>135.93</v>
+      </c>
+      <c r="M5" t="n">
+        <v>-0.3700000000000045</v>
+      </c>
+      <c r="N5" t="n">
+        <v>-0.27</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>1731701152.783086</t>
-        </is>
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1731701153.386661</t>
+          <t>GAZP</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>./test_images/MXI1731701152.783086.png</t>
+          <t>1731876666.3904977</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>./test_images/MXI1731701153.386661.png</t>
+          <t>1731876667.3550549</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>short</t>
+          <t>./test_images/GAZP1731876666.3904977.png</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
-        <v>2786.9</v>
-      </c>
-      <c r="J6" t="n">
-        <v>2785</v>
+          <t>./test_images/GAZP1731876667.3550549.png</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
       </c>
       <c r="K6" t="n">
-        <v>1.900000000000091</v>
+        <v>135.69</v>
       </c>
       <c r="L6" t="n">
-        <v>0.06999999999999999</v>
+        <v>135.82</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.1299999999999955</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>1731701154.7330325</t>
-        </is>
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1731701154.7719297</t>
+          <t>GAZP</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>./test_images/MXI1731701154.7330325.png</t>
+          <t>1731876667.7798748</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>./test_images/MXI1731701154.7719297.png</t>
+          <t>1731876667.8782673</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>./test_images/GAZP1731876667.7798748.png</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
-        <v>2783.45</v>
-      </c>
-      <c r="J7" t="n">
-        <v>2784.85</v>
+          <t>./test_images/GAZP1731876667.8782673.png</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
       </c>
       <c r="K7" t="n">
-        <v>1.400000000000091</v>
+        <v>135.93</v>
       </c>
       <c r="L7" t="n">
-        <v>0.05</v>
+        <v>135.72</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.210000000000008</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.15</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>1731701156.1462536</t>
-        </is>
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1731701157.69611</t>
+          <t>GAZP</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>./test_images/MXI1731701156.1462536.png</t>
+          <t>1731876668.8483105</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>./test_images/MXI1731701157.69611.png</t>
+          <t>1731876670.862041</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
+          <t>./test_images/GAZP1731876668.8483105.png</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>./test_images/GAZP1731876670.862041.png</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
-        <v>2776.05</v>
-      </c>
-      <c r="J8" t="n">
-        <v>2776.5</v>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
       </c>
       <c r="K8" t="n">
-        <v>0.4499999999998181</v>
+        <v>135.57</v>
       </c>
       <c r="L8" t="n">
-        <v>0.02</v>
+        <v>135.17</v>
+      </c>
+      <c r="M8" t="n">
+        <v>-0.4000000000000057</v>
+      </c>
+      <c r="N8" t="n">
+        <v>-0.3</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>1731701157.7110703</t>
-        </is>
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1731701157.7797916</t>
+          <t>GAZP</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>./test_images/MXI1731701157.7110703.png</t>
+          <t>1731876670.981176</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>./test_images/MXI1731701157.7797916.png</t>
+          <t>1731876671.5690162</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
+          <t>./test_images/GAZP1731876670.981176.png</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>./test_images/GAZP1731876671.5690162.png</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
-        <v>2776.5</v>
-      </c>
-      <c r="J9" t="n">
-        <v>2776.25</v>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
       </c>
       <c r="K9" t="n">
-        <v>0.25</v>
+        <v>135.29</v>
       </c>
       <c r="L9" t="n">
-        <v>0.01</v>
+        <v>135.32</v>
+      </c>
+      <c r="M9" t="n">
+        <v>-0.03000000000000114</v>
+      </c>
+      <c r="N9" t="n">
+        <v>-0.02</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>1731701159.458331</t>
-        </is>
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1731701159.8487425</t>
+          <t>GAZP</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>./test_images/MXI1731701159.458331.png</t>
+          <t>1731876672.5196774</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>./test_images/MXI1731701159.8487425.png</t>
+          <t>1731876673.3605456</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
+          <t>./test_images/GAZP1731876672.5196774.png</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>./test_images/GAZP1731876673.3605456.png</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
-        <v>2775.4</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2779.85</v>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
       </c>
       <c r="K10" t="n">
-        <v>4.449999999999818</v>
+        <v>135.03</v>
       </c>
       <c r="L10" t="n">
-        <v>0.16</v>
+        <v>135.18</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.1500000000000057</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.11</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>GAZP</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>1731876675.0854669</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>./test_images/GAZP1731876675.0854669.png</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>135.31</v>
+      </c>
+      <c r="L11" t="n">
+        <v>135.34</v>
+      </c>
+      <c r="M11" t="n">
+        <v>-0.03000000000000114</v>
+      </c>
+      <c r="N11" t="n">
+        <v>-0.02</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>LKOH</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>1731876676.5713677</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1731876678.1393254</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>./test_images/LKOH1731876676.5713677.png</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>./test_images/LKOH1731876678.1393254.png</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
+        <v>7020</v>
+      </c>
+      <c r="L12" t="n">
+        <v>7035</v>
+      </c>
+      <c r="M12" t="n">
+        <v>-15</v>
+      </c>
+      <c r="N12" t="n">
+        <v>-0.21</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>LKOH</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>1731876679.8459735</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1731876680.7394698</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>./test_images/LKOH1731876679.8459735.png</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>./test_images/LKOH1731876680.7394698.png</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
+        <v>7031</v>
+      </c>
+      <c r="L13" t="n">
+        <v>7037</v>
+      </c>
+      <c r="M13" t="n">
+        <v>6</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>LKOH</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>1731876682.2884212</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1731876682.8260546</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>./test_images/LKOH1731876682.2884212.png</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>./test_images/LKOH1731876682.8260546.png</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>7020.5</v>
+      </c>
+      <c r="L14" t="n">
+        <v>7025.5</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.06999999999999999</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>LKOH</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>1731876682.8416035</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1731876682.8898954</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>./test_images/LKOH1731876682.8416035.png</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>./test_images/LKOH1731876682.8898954.png</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
+        <v>7025.5</v>
+      </c>
+      <c r="L15" t="n">
+        <v>7026.5</v>
+      </c>
+      <c r="M15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="N15" t="n">
+        <v>-0.01</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>LKOH</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>1731876682.9332185</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1731876684.8075757</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>./test_images/LKOH1731876682.9332185.png</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>./test_images/LKOH1731876684.8075757.png</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
+        <v>7013</v>
+      </c>
+      <c r="L16" t="n">
+        <v>7007</v>
+      </c>
+      <c r="M16" t="n">
+        <v>-6</v>
+      </c>
+      <c r="N16" t="n">
+        <v>-0.09</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>LKOH</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>1731876684.824664</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1731876685.0059574</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>./test_images/LKOH1731876684.824664.png</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>./test_images/LKOH1731876685.0059574.png</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>7007</v>
+      </c>
+      <c r="L17" t="n">
+        <v>7005</v>
+      </c>
+      <c r="M17" t="n">
+        <v>2</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>LKOH</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>1731876685.704124</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1731876686.2196646</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>./test_images/LKOH1731876685.704124.png</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>./test_images/LKOH1731876686.2196646.png</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
+        <v>7000.5</v>
+      </c>
+      <c r="L18" t="n">
+        <v>7008.5</v>
+      </c>
+      <c r="M18" t="n">
+        <v>8</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>LKOH</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>1731876686.2621305</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1731876686.3595357</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>./test_images/LKOH1731876686.2621305.png</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>./test_images/LKOH1731876686.3595357.png</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v>7009.5</v>
+      </c>
+      <c r="L19" t="n">
+        <v>7004</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>LKOH</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>1731876686.4205523</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1731876686.598461</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>./test_images/LKOH1731876686.4205523.png</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>./test_images/LKOH1731876686.598461.png</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
+        <v>6999</v>
+      </c>
+      <c r="L20" t="n">
+        <v>7010</v>
+      </c>
+      <c r="M20" t="n">
+        <v>11</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>LKOH</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>1731876686.6405578</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1731876687.9053872</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>./test_images/LKOH1731876686.6405578.png</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>./test_images/LKOH1731876687.9053872.png</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
+        <v>7013.5</v>
+      </c>
+      <c r="L21" t="n">
+        <v>7005.5</v>
+      </c>
+      <c r="M21" t="n">
+        <v>8</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>LKOH</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>1731876687.920494</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1731876690.009109</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>./test_images/LKOH1731876687.920494.png</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>./test_images/LKOH1731876690.009109.png</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>7005.5</v>
+      </c>
+      <c r="L22" t="n">
+        <v>6995.5</v>
+      </c>
+      <c r="M22" t="n">
+        <v>-10</v>
+      </c>
+      <c r="N22" t="n">
+        <v>-0.14</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>LKOH</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>1731876690.7230248</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1731876691.6391947</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>./test_images/LKOH1731876690.7230248.png</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>./test_images/LKOH1731876691.6391947.png</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L23" t="n">
+        <v>6994</v>
+      </c>
+      <c r="M23" t="n">
+        <v>6</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>LKOH</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>1731876692.781653</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1731876693.6491764</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>./test_images/LKOH1731876692.781653.png</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>./test_images/LKOH1731876693.6491764.png</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
+        <v>7003</v>
+      </c>
+      <c r="L24" t="n">
+        <v>7000.5</v>
+      </c>
+      <c r="M24" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>LKOH</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>1731876694.250017</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1731876694.353209</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>./test_images/LKOH1731876694.250017.png</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>./test_images/LKOH1731876694.353209.png</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
+        <v>7000.5</v>
+      </c>
+      <c r="L25" t="n">
+        <v>7005</v>
+      </c>
+      <c r="M25" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>LKOH</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>1731876694.6725094</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>./test_images/LKOH1731876694.6725094.png</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
+        <v>7004.5</v>
+      </c>
+      <c r="L26" t="n">
+        <v>7006.5</v>
+      </c>
+      <c r="M26" t="n">
+        <v>-2</v>
+      </c>
+      <c r="N26" t="n">
+        <v>-0.03</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>ROSN</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>1731876696.2228057</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1731876699.0418687</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>./test_images/ROSN1731876696.2228057.png</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>./test_images/ROSN1731876699.0418687.png</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>489.9</v>
+      </c>
+      <c r="L27" t="n">
+        <v>492.6</v>
+      </c>
+      <c r="M27" t="n">
+        <v>-2.700000000000045</v>
+      </c>
+      <c r="N27" t="n">
+        <v>-0.5499999999999999</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>ROSN</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>1731876699.2747135</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1731876702.1602533</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>./test_images/ROSN1731876699.2747135.png</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>./test_images/ROSN1731876702.1602533.png</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
+        <v>491.9</v>
+      </c>
+      <c r="L28" t="n">
+        <v>490.85</v>
+      </c>
+      <c r="M28" t="n">
+        <v>-1.049999999999955</v>
+      </c>
+      <c r="N28" t="n">
+        <v>-0.21</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>ROSN</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>1731876702.1754532</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1731876702.2564147</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>./test_images/ROSN1731876702.1754532.png</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>./test_images/ROSN1731876702.2564147.png</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v>490.85</v>
+      </c>
+      <c r="L29" t="n">
+        <v>490.6</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>ROSN</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>1731876703.4274883</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1731876703.5266414</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>./test_images/ROSN1731876703.4274883.png</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>./test_images/ROSN1731876703.5266414.png</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
+        <v>490.65</v>
+      </c>
+      <c r="L30" t="n">
+        <v>490.3</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0.3499999999999659</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.06999999999999999</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>ROSN</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>1731876703.5358322</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1731876704.0054438</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>./test_images/ROSN1731876703.5358322.png</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>./test_images/ROSN1731876704.0054438.png</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>490.3</v>
+      </c>
+      <c r="L31" t="n">
+        <v>490.45</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0.1499999999999773</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>ROSN</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>1731876704.137634</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1731876704.2058387</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>./test_images/ROSN1731876704.137634.png</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>./test_images/ROSN1731876704.2058387.png</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>490.55</v>
+      </c>
+      <c r="L32" t="n">
+        <v>490.35</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0.1999999999999886</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>ROSN</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>1731876704.550275</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1731876704.6207926</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>./test_images/ROSN1731876704.550275.png</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>./test_images/ROSN1731876704.6207926.png</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
+        <v>490.45</v>
+      </c>
+      <c r="L33" t="n">
+        <v>490.45</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>ROSN</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>1731876705.1902635</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1731876709.3636906</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>./test_images/ROSN1731876705.1902635.png</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>./test_images/ROSN1731876709.3636906.png</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>490</v>
+      </c>
+      <c r="L34" t="n">
+        <v>487.25</v>
+      </c>
+      <c r="M34" t="n">
+        <v>-2.75</v>
+      </c>
+      <c r="N34" t="n">
+        <v>-0.5599999999999999</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="n">
+        <v>33</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>ROSN</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>1731876709.4049869</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1731876709.7098107</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>./test_images/ROSN1731876709.4049869.png</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>./test_images/ROSN1731876709.7098107.png</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>487.45</v>
+      </c>
+      <c r="L35" t="n">
+        <v>487.4</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0.05000000000001137</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="n">
+        <v>34</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>ROSN</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>1731876710.6441383</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1731876711.809679</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>./test_images/ROSN1731876710.6441383.png</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>./test_images/ROSN1731876711.809679.png</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>486.6</v>
+      </c>
+      <c r="L36" t="n">
+        <v>487.05</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.4499999999999886</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>ROSN</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>1731876712.0734158</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>./test_images/ROSN1731876712.0734158.png</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>484.5</v>
+      </c>
+      <c r="L37" t="n">
+        <v>484.5</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" t="n">
+        <v>36</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>NVTK</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>1731876714.4744196</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1731876716.75552</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>./test_images/NVTK1731876714.4744196.png</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>./test_images/NVTK1731876716.75552.png</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>940.4</v>
+      </c>
+      <c r="L38" t="n">
+        <v>943.8</v>
+      </c>
+      <c r="M38" t="n">
+        <v>-3.399999999999977</v>
+      </c>
+      <c r="N38" t="n">
+        <v>-0.36</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>37</v>
+      </c>
+      <c r="C39" t="n">
+        <v>37</v>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>NVTK</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>1731876717.7024865</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1731876718.1258943</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>./test_images/NVTK1731876717.7024865.png</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>./test_images/NVTK1731876718.1258943.png</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
+        <v>945</v>
+      </c>
+      <c r="L39" t="n">
+        <v>945.6</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.6000000000000227</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>38</v>
+      </c>
+      <c r="C40" t="n">
+        <v>38</v>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>NVTK</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>1731876718.1432364</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1731876718.9008136</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>./test_images/NVTK1731876718.1432364.png</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>./test_images/NVTK1731876718.9008136.png</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
+        <v>945.6</v>
+      </c>
+      <c r="L40" t="n">
+        <v>947.8</v>
+      </c>
+      <c r="M40" t="n">
+        <v>-2.199999999999932</v>
+      </c>
+      <c r="N40" t="n">
+        <v>-0.23</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>39</v>
+      </c>
+      <c r="C41" t="n">
+        <v>39</v>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>NVTK</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>1731876719.166692</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1731876723.2471302</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>./test_images/NVTK1731876719.166692.png</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>./test_images/NVTK1731876723.2471302.png</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
+        <v>945</v>
+      </c>
+      <c r="L41" t="n">
+        <v>939.4</v>
+      </c>
+      <c r="M41" t="n">
+        <v>-5.600000000000023</v>
+      </c>
+      <c r="N41" t="n">
+        <v>-0.59</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>40</v>
+      </c>
+      <c r="C42" t="n">
+        <v>40</v>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>NVTK</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>1731876724.5473282</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1731876726.603054</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>./test_images/NVTK1731876724.5473282.png</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>./test_images/NVTK1731876726.603054.png</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
+        <v>937</v>
+      </c>
+      <c r="L42" t="n">
+        <v>934.8</v>
+      </c>
+      <c r="M42" t="n">
+        <v>-2.200000000000045</v>
+      </c>
+      <c r="N42" t="n">
+        <v>-0.23</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>41</v>
+      </c>
+      <c r="C43" t="n">
+        <v>41</v>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>NVTK</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>1731876726.94409</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1731876728.0222437</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>./test_images/NVTK1731876726.94409.png</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>./test_images/NVTK1731876728.0222437.png</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
+        <v>935</v>
+      </c>
+      <c r="L43" t="n">
+        <v>935.4</v>
+      </c>
+      <c r="M43" t="n">
+        <v>-0.3999999999999773</v>
+      </c>
+      <c r="N43" t="n">
+        <v>-0.04</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>42</v>
+      </c>
+      <c r="C44" t="n">
+        <v>42</v>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>NVTK</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>1731876728.2170386</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1731876729.4799056</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>./test_images/NVTK1731876728.2170386.png</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>./test_images/NVTK1731876729.4799056.png</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
+        <v>934.6</v>
+      </c>
+      <c r="L44" t="n">
+        <v>935.4</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0.7999999999999545</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>43</v>
+      </c>
+      <c r="C45" t="n">
+        <v>43</v>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>NVTK</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>1731876730.9829676</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1731876731.9902081</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>./test_images/NVTK1731876730.9829676.png</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>./test_images/NVTK1731876731.9902081.png</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
+        <v>935.8</v>
+      </c>
+      <c r="L45" t="n">
+        <v>935.4</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0.3999999999999773</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>44</v>
+      </c>
+      <c r="C46" t="n">
+        <v>44</v>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>MAGN</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>1731876732.23531</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1731876733.557514</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>./test_images/MAGN1731876732.23531.png</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>./test_images/MAGN1731876733.557514.png</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
+        <v>37.915</v>
+      </c>
+      <c r="L46" t="n">
+        <v>38.03</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0.115000000000002</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>45</v>
+      </c>
+      <c r="C47" t="n">
+        <v>45</v>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>MAGN</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>1731876733.7125216</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1731876734.6301246</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>./test_images/MAGN1731876733.7125216.png</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>./test_images/MAGN1731876734.6301246.png</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
+        <v>38.06</v>
+      </c>
+      <c r="L47" t="n">
+        <v>38.025</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0.03500000000000369</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>46</v>
+      </c>
+      <c r="C48" t="n">
+        <v>46</v>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>MAGN</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>1731876735.178079</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1731876736.3283813</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>./test_images/MAGN1731876735.178079.png</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>./test_images/MAGN1731876736.3283813.png</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
+        <v>37.96</v>
+      </c>
+      <c r="L48" t="n">
+        <v>37.915</v>
+      </c>
+      <c r="M48" t="n">
+        <v>-0.04500000000000171</v>
+      </c>
+      <c r="N48" t="n">
+        <v>-0.12</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>47</v>
+      </c>
+      <c r="C49" t="n">
+        <v>47</v>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>MAGN</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>1731876736.4537141</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1731876736.5277212</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>./test_images/MAGN1731876736.4537141.png</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>./test_images/MAGN1731876736.5277212.png</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
+        <v>37.93</v>
+      </c>
+      <c r="L49" t="n">
+        <v>37.885</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0.04500000000000171</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>48</v>
+      </c>
+      <c r="C50" t="n">
+        <v>48</v>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>MAGN</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>1731876737.9854093</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1731876738.425353</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>./test_images/MAGN1731876737.9854093.png</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>./test_images/MAGN1731876738.425353.png</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
+        <v>37.84</v>
+      </c>
+      <c r="L50" t="n">
+        <v>37.915</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0.07499999999999574</v>
+      </c>
+      <c r="N50" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>49</v>
+      </c>
+      <c r="C51" t="n">
+        <v>49</v>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>MAGN</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>1731876738.777435</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1731876743.24458</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>./test_images/MAGN1731876738.777435.png</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>./test_images/MAGN1731876743.24458.png</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
+        <v>37.925</v>
+      </c>
+      <c r="L51" t="n">
+        <v>38.08</v>
+      </c>
+      <c r="M51" t="n">
+        <v>-0.1550000000000011</v>
+      </c>
+      <c r="N51" t="n">
+        <v>-0.41</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
+        <v>50</v>
+      </c>
+      <c r="C52" t="n">
+        <v>50</v>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>MAGN</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>1731876744.9872215</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1731876745.7755835</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>./test_images/MAGN1731876744.9872215.png</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>./test_images/MAGN1731876745.7755835.png</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
+        <v>38.19</v>
+      </c>
+      <c r="L52" t="n">
+        <v>38.15</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0.03999999999999915</v>
+      </c>
+      <c r="N52" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="n">
+        <v>51</v>
+      </c>
+      <c r="C53" t="n">
+        <v>51</v>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>MAGN</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>1731876746.7164228</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1731876748.8030128</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>./test_images/MAGN1731876746.7164228.png</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>./test_images/MAGN1731876748.8030128.png</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
+        <v>38.13</v>
+      </c>
+      <c r="L53" t="n">
+        <v>38.065</v>
+      </c>
+      <c r="M53" t="n">
+        <v>-0.06500000000000483</v>
+      </c>
+      <c r="N53" t="n">
+        <v>-0.17</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
+        <v>52</v>
+      </c>
+      <c r="C54" t="n">
+        <v>52</v>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>MAGN</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>1731876749.7650313</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1731876750.0128126</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>./test_images/MAGN1731876749.7650313.png</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>./test_images/MAGN1731876750.0128126.png</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
+        <v>38.17</v>
+      </c>
+      <c r="L54" t="n">
+        <v>38.07</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0.1000000000000014</v>
+      </c>
+      <c r="N54" t="n">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="n">
+        <v>53</v>
+      </c>
+      <c r="C55" t="n">
+        <v>53</v>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>CHMF</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>1731876750.5058033</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>1731876750.6592522</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>./test_images/CHMF1731876750.5058033.png</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>./test_images/CHMF1731876750.6592522.png</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
+        <v>1240.6</v>
+      </c>
+      <c r="L55" t="n">
+        <v>1243.4</v>
+      </c>
+      <c r="M55" t="n">
+        <v>2.800000000000182</v>
+      </c>
+      <c r="N55" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
+        <v>54</v>
+      </c>
+      <c r="C56" t="n">
+        <v>54</v>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>CHMF</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>1731876750.67524</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1731876752.5678117</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>./test_images/CHMF1731876750.67524.png</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>./test_images/CHMF1731876752.5678117.png</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
+        <v>1243.4</v>
+      </c>
+      <c r="L56" t="n">
+        <v>1247.4</v>
+      </c>
+      <c r="M56" t="n">
+        <v>-4</v>
+      </c>
+      <c r="N56" t="n">
+        <v>-0.32</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="n">
+        <v>55</v>
+      </c>
+      <c r="C57" t="n">
+        <v>55</v>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>CHMF</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>1731876752.8286083</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>1731876753.6213963</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>./test_images/CHMF1731876752.8286083.png</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>./test_images/CHMF1731876753.6213963.png</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
+        <v>1246</v>
+      </c>
+      <c r="L57" t="n">
+        <v>1246</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0</v>
+      </c>
+      <c r="N57" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="n">
+        <v>56</v>
+      </c>
+      <c r="C58" t="n">
+        <v>56</v>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>CHMF</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>1731876754.024634</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>1731876754.8184083</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>./test_images/CHMF1731876754.024634.png</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>./test_images/CHMF1731876754.8184083.png</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
+        <v>1243.2</v>
+      </c>
+      <c r="L58" t="n">
+        <v>1244.8</v>
+      </c>
+      <c r="M58" t="n">
+        <v>1.599999999999909</v>
+      </c>
+      <c r="N58" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="n">
+        <v>57</v>
+      </c>
+      <c r="C59" t="n">
+        <v>57</v>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>CHMF</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>1731876755.431659</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>1731876756.2007222</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>./test_images/CHMF1731876755.431659.png</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>./test_images/CHMF1731876756.2007222.png</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
+        <v>1246.6</v>
+      </c>
+      <c r="L59" t="n">
+        <v>1243.8</v>
+      </c>
+      <c r="M59" t="n">
+        <v>2.799999999999955</v>
+      </c>
+      <c r="N59" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="n">
+        <v>58</v>
+      </c>
+      <c r="C60" t="n">
+        <v>58</v>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>CHMF</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>1731876757.4516904</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>1731876757.587523</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>./test_images/CHMF1731876757.4516904.png</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>./test_images/CHMF1731876757.587523.png</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
+        <v>1243.6</v>
+      </c>
+      <c r="L60" t="n">
+        <v>1243.2</v>
+      </c>
+      <c r="M60" t="n">
+        <v>0.3999999999998636</v>
+      </c>
+      <c r="N60" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="n">
+        <v>59</v>
+      </c>
+      <c r="C61" t="n">
+        <v>59</v>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>CHMF</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>1731876757.6858966</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>1731876758.7841656</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>./test_images/CHMF1731876757.6858966.png</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>./test_images/CHMF1731876758.7841656.png</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
+        <v>1242.2</v>
+      </c>
+      <c r="L61" t="n">
+        <v>1244.6</v>
+      </c>
+      <c r="M61" t="n">
+        <v>2.399999999999864</v>
+      </c>
+      <c r="N61" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="n">
+        <v>60</v>
+      </c>
+      <c r="C62" t="n">
+        <v>60</v>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>CHMF</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>1731876759.2283456</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>1731876760.1229618</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>./test_images/CHMF1731876759.2283456.png</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>./test_images/CHMF1731876760.1229618.png</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
+        <v>1240.4</v>
+      </c>
+      <c r="L62" t="n">
+        <v>1243.8</v>
+      </c>
+      <c r="M62" t="n">
+        <v>3.399999999999864</v>
+      </c>
+      <c r="N62" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="n">
+        <v>61</v>
+      </c>
+      <c r="C63" t="n">
+        <v>61</v>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>CHMF</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>1731876763.026606</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>1731876766.8082826</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>./test_images/CHMF1731876763.026606.png</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>./test_images/CHMF1731876766.8082826.png</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
+        <v>1235</v>
+      </c>
+      <c r="L63" t="n">
+        <v>1235</v>
+      </c>
+      <c r="M63" t="n">
+        <v>0</v>
+      </c>
+      <c r="N63" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="n">
+        <v>62</v>
+      </c>
+      <c r="C64" t="n">
+        <v>62</v>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>CHMF</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>1731876768.7333333</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr"/>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>./test_images/CHMF1731876768.7333333.png</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
+        <v>1238</v>
+      </c>
+      <c r="L64" t="n">
+        <v>1240.2</v>
+      </c>
+      <c r="M64" t="n">
+        <v>-2.200000000000045</v>
+      </c>
+      <c r="N64" t="n">
+        <v>-0.18</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="n">
+        <v>63</v>
+      </c>
+      <c r="C65" t="n">
+        <v>63</v>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>VTBR</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>1731876770.867256</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>1731876771.872863</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>./test_images/VTBR1731876770.867256.png</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>./test_images/VTBR1731876771.872863.png</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
+        <v>81.18000000000001</v>
+      </c>
+      <c r="L65" t="n">
+        <v>81.11</v>
+      </c>
+      <c r="M65" t="n">
+        <v>0.07000000000000739</v>
+      </c>
+      <c r="N65" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="n">
+        <v>64</v>
+      </c>
+      <c r="C66" t="n">
+        <v>64</v>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>VTBR</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>1731876774.7606575</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>1731876776.729575</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>./test_images/VTBR1731876774.7606575.png</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>./test_images/VTBR1731876776.729575.png</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
+        <v>81.03</v>
+      </c>
+      <c r="L66" t="n">
+        <v>80.92</v>
+      </c>
+      <c r="M66" t="n">
+        <v>-0.1099999999999994</v>
+      </c>
+      <c r="N66" t="n">
+        <v>-0.14</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="n">
+        <v>65</v>
+      </c>
+      <c r="C67" t="n">
+        <v>65</v>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>VTBR</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>1731876777.9461718</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>1731876778.9366624</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>./test_images/VTBR1731876777.9461718.png</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>./test_images/VTBR1731876778.9366624.png</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
+        <v>80.73999999999999</v>
+      </c>
+      <c r="L67" t="n">
+        <v>80.84999999999999</v>
+      </c>
+      <c r="M67" t="n">
+        <v>0.1099999999999994</v>
+      </c>
+      <c r="N67" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="n">
+        <v>66</v>
+      </c>
+      <c r="C68" t="n">
+        <v>66</v>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>VTBR</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>1731876780.4636755</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>1731876782.4207275</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>./test_images/VTBR1731876780.4636755.png</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>./test_images/VTBR1731876782.4207275.png</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
+        <v>80.64</v>
+      </c>
+      <c r="L68" t="n">
+        <v>80.48</v>
+      </c>
+      <c r="M68" t="n">
+        <v>-0.1599999999999966</v>
+      </c>
+      <c r="N68" t="n">
+        <v>-0.2</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="n">
+        <v>67</v>
+      </c>
+      <c r="C69" t="n">
+        <v>67</v>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>VTBR</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>1731876784.5150836</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>1731876784.6512864</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>./test_images/VTBR1731876784.5150836.png</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>./test_images/VTBR1731876784.6512864.png</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
+        <v>80.45</v>
+      </c>
+      <c r="L69" t="n">
+        <v>80.56999999999999</v>
+      </c>
+      <c r="M69" t="n">
+        <v>0.1199999999999903</v>
+      </c>
+      <c r="N69" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="n">
+        <v>68</v>
+      </c>
+      <c r="C70" t="n">
+        <v>68</v>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>VTBR</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>1731876786.5226107</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr"/>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>./test_images/VTBR1731876786.5226107.png</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
+        <v>80.64</v>
+      </c>
+      <c r="L70" t="n">
+        <v>80.95999999999999</v>
+      </c>
+      <c r="M70" t="n">
+        <v>-0.3199999999999932</v>
+      </c>
+      <c r="N70" t="n">
+        <v>-0.4</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="n">
+        <v>69</v>
+      </c>
+      <c r="C71" t="n">
+        <v>69</v>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>AFKS</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>1731876787.8693063</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>1731876788.4306347</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>./test_images/AFKS1731876787.8693063.png</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>./test_images/AFKS1731876788.4306347.png</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
+        <v>14.394</v>
+      </c>
+      <c r="L71" t="n">
+        <v>14.446</v>
+      </c>
+      <c r="M71" t="n">
+        <v>0.0519999999999996</v>
+      </c>
+      <c r="N71" t="n">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="n">
+        <v>70</v>
+      </c>
+      <c r="C72" t="n">
+        <v>70</v>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>AFKS</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>1731876788.538011</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>1731876788.5854347</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>./test_images/AFKS1731876788.538011.png</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>./test_images/AFKS1731876788.5854347.png</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
+        <v>14.494</v>
+      </c>
+      <c r="L72" t="n">
+        <v>14.427</v>
+      </c>
+      <c r="M72" t="n">
+        <v>0.06700000000000017</v>
+      </c>
+      <c r="N72" t="n">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="n">
+        <v>71</v>
+      </c>
+      <c r="C73" t="n">
+        <v>71</v>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>AFKS</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>1731876788.7997572</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>1731876789.0400836</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>./test_images/AFKS1731876788.7997572.png</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>./test_images/AFKS1731876789.0400836.png</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
+        <v>14.49</v>
+      </c>
+      <c r="L73" t="n">
+        <v>14.424</v>
+      </c>
+      <c r="M73" t="n">
+        <v>0.06600000000000072</v>
+      </c>
+      <c r="N73" t="n">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="n">
+        <v>72</v>
+      </c>
+      <c r="C74" t="n">
+        <v>72</v>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>AFKS</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>1731876789.593287</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>1731876789.8141687</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>./test_images/AFKS1731876789.593287.png</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>./test_images/AFKS1731876789.8141687.png</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
+        <v>14.519</v>
+      </c>
+      <c r="L74" t="n">
+        <v>14.457</v>
+      </c>
+      <c r="M74" t="n">
+        <v>0.06199999999999939</v>
+      </c>
+      <c r="N74" t="n">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="n">
+        <v>73</v>
+      </c>
+      <c r="C75" t="n">
+        <v>73</v>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>AFKS</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>1731876791.3901868</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>1731876791.748691</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>./test_images/AFKS1731876791.3901868.png</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>./test_images/AFKS1731876791.748691.png</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
+        <v>14.47</v>
+      </c>
+      <c r="L75" t="n">
+        <v>14.49</v>
+      </c>
+      <c r="M75" t="n">
+        <v>0.01999999999999957</v>
+      </c>
+      <c r="N75" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="n">
+        <v>74</v>
+      </c>
+      <c r="C76" t="n">
+        <v>74</v>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>AFKS</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>1731876791.845194</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>1731876792.4619246</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>./test_images/AFKS1731876791.845194.png</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>./test_images/AFKS1731876792.4619246.png</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
+        <v>14.515</v>
+      </c>
+      <c r="L76" t="n">
+        <v>14.511</v>
+      </c>
+      <c r="M76" t="n">
+        <v>0.004000000000001336</v>
+      </c>
+      <c r="N76" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="n">
+        <v>75</v>
+      </c>
+      <c r="C77" t="n">
+        <v>75</v>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>AFKS</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>1731876793.1606781</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>1731876793.3373635</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>./test_images/AFKS1731876793.1606781.png</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>./test_images/AFKS1731876793.3373635.png</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
+        <v>14.517</v>
+      </c>
+      <c r="L77" t="n">
+        <v>14.549</v>
+      </c>
+      <c r="M77" t="n">
+        <v>0.03200000000000003</v>
+      </c>
+      <c r="N77" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="n">
+        <v>76</v>
+      </c>
+      <c r="C78" t="n">
+        <v>76</v>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>AFKS</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>1731876793.5281618</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>1731876794.7878675</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>./test_images/AFKS1731876793.5281618.png</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>./test_images/AFKS1731876794.7878675.png</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
+        <v>14.486</v>
+      </c>
+      <c r="L78" t="n">
+        <v>14.471</v>
+      </c>
+      <c r="M78" t="n">
+        <v>-0.01500000000000057</v>
+      </c>
+      <c r="N78" t="n">
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="n">
+        <v>77</v>
+      </c>
+      <c r="C79" t="n">
+        <v>77</v>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>AFKS</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>1731876794.9956708</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>1731876795.5877733</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>./test_images/AFKS1731876794.9956708.png</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>./test_images/AFKS1731876795.5877733.png</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
+        <v>14.436</v>
+      </c>
+      <c r="L79" t="n">
+        <v>14.46</v>
+      </c>
+      <c r="M79" t="n">
+        <v>0.02400000000000091</v>
+      </c>
+      <c r="N79" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="n">
+        <v>78</v>
+      </c>
+      <c r="C80" t="n">
+        <v>78</v>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>AFKS</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>1731876797.0146995</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>1731876797.4902127</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>./test_images/AFKS1731876797.0146995.png</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>./test_images/AFKS1731876797.4902127.png</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="L80" t="n">
+        <v>14.474</v>
+      </c>
+      <c r="M80" t="n">
+        <v>0.07399999999999984</v>
+      </c>
+      <c r="N80" t="n">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="n">
+        <v>79</v>
+      </c>
+      <c r="C81" t="n">
+        <v>79</v>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>AFKS</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>1731876799.9295928</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>1731876801.7430162</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>./test_images/AFKS1731876799.9295928.png</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>./test_images/AFKS1731876801.7430162.png</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
+        <v>14.405</v>
+      </c>
+      <c r="L81" t="n">
+        <v>14.393</v>
+      </c>
+      <c r="M81" t="n">
+        <v>-0.01199999999999868</v>
+      </c>
+      <c r="N81" t="n">
+        <v>-0.08</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="n">
+        <v>80</v>
+      </c>
+      <c r="C82" t="n">
+        <v>80</v>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>AFKS</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>1731876803.510929</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>1731876803.9995685</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>./test_images/AFKS1731876803.510929.png</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>./test_images/AFKS1731876803.9995685.png</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
+        <v>14.35</v>
+      </c>
+      <c r="L82" t="n">
+        <v>14.366</v>
+      </c>
+      <c r="M82" t="n">
+        <v>0.01600000000000001</v>
+      </c>
+      <c r="N82" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="n">
+        <v>81</v>
+      </c>
+      <c r="C83" t="n">
+        <v>81</v>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>AFKS</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>1731876805.5623198</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>1731876805.7556255</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>./test_images/AFKS1731876805.5623198.png</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>./test_images/AFKS1731876805.7556255.png</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
+        <v>14.349</v>
+      </c>
+      <c r="L83" t="n">
+        <v>14.375</v>
+      </c>
+      <c r="M83" t="n">
+        <v>0.0259999999999998</v>
+      </c>
+      <c r="N83" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="n">
+        <v>82</v>
+      </c>
+      <c r="C84" t="n">
+        <v>82</v>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>AFKS</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>1731876806.2578583</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>1731876806.5699277</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>./test_images/AFKS1731876806.2578583.png</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>./test_images/AFKS1731876806.5699277.png</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="L84" t="n">
+        <v>14.362</v>
+      </c>
+      <c r="M84" t="n">
+        <v>0.03800000000000026</v>
+      </c>
+      <c r="N84" t="n">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="n">
+        <v>83</v>
+      </c>
+      <c r="C85" t="n">
+        <v>83</v>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>MTLR</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>1731876807.1608164</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>1731876807.6686046</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>./test_images/MTLR1731876807.1608164.png</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>./test_images/MTLR1731876807.6686046.png</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
+        <v>106.58</v>
+      </c>
+      <c r="L85" t="n">
+        <v>106.62</v>
+      </c>
+      <c r="M85" t="n">
+        <v>0.04000000000000625</v>
+      </c>
+      <c r="N85" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="n">
+        <v>84</v>
+      </c>
+      <c r="C86" t="n">
+        <v>84</v>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>MTLR</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>1731876807.7726314</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>1731876809.7073789</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>./test_images/MTLR1731876807.7726314.png</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>./test_images/MTLR1731876809.7073789.png</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
+        <v>106.8</v>
+      </c>
+      <c r="L86" t="n">
+        <v>107.14</v>
+      </c>
+      <c r="M86" t="n">
+        <v>-0.3400000000000034</v>
+      </c>
+      <c r="N86" t="n">
+        <v>-0.32</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="n">
+        <v>85</v>
+      </c>
+      <c r="C87" t="n">
+        <v>85</v>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>MTLR</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>1731876809.9453988</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>1731876811.9663734</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>./test_images/MTLR1731876809.9453988.png</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>./test_images/MTLR1731876811.9663734.png</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
+        <v>107.09</v>
+      </c>
+      <c r="L87" t="n">
+        <v>106.87</v>
+      </c>
+      <c r="M87" t="n">
+        <v>-0.2199999999999989</v>
+      </c>
+      <c r="N87" t="n">
+        <v>-0.21</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="n">
+        <v>86</v>
+      </c>
+      <c r="C88" t="n">
+        <v>86</v>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>MTLR</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>1731876812.7339132</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>1731876813.4599576</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>./test_images/MTLR1731876812.7339132.png</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>./test_images/MTLR1731876813.4599576.png</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
+        <v>107.12</v>
+      </c>
+      <c r="L88" t="n">
+        <v>107</v>
+      </c>
+      <c r="M88" t="n">
+        <v>0.1200000000000045</v>
+      </c>
+      <c r="N88" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="n">
+        <v>87</v>
+      </c>
+      <c r="C89" t="n">
+        <v>87</v>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>MTLR</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>1731876813.6984696</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>1731876813.801221</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>./test_images/MTLR1731876813.6984696.png</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>./test_images/MTLR1731876813.801221.png</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
+        <v>106.78</v>
+      </c>
+      <c r="L89" t="n">
+        <v>106.95</v>
+      </c>
+      <c r="M89" t="n">
+        <v>0.1700000000000017</v>
+      </c>
+      <c r="N89" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>88</v>
+      </c>
+      <c r="C90" t="n">
+        <v>88</v>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>MTLR</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>1731876815.4559047</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>1731876815.586413</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>./test_images/MTLR1731876815.4559047.png</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>./test_images/MTLR1731876815.586413.png</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
+        <v>106.68</v>
+      </c>
+      <c r="L90" t="n">
+        <v>106.87</v>
+      </c>
+      <c r="M90" t="n">
+        <v>0.1899999999999977</v>
+      </c>
+      <c r="N90" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
+        <v>89</v>
+      </c>
+      <c r="C91" t="n">
+        <v>89</v>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>MTLR</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>1731876816.9419403</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>1731876819.2252235</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>./test_images/MTLR1731876816.9419403.png</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>./test_images/MTLR1731876819.2252235.png</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
+        <v>106.66</v>
+      </c>
+      <c r="L91" t="n">
+        <v>106.14</v>
+      </c>
+      <c r="M91" t="n">
+        <v>-0.519999999999996</v>
+      </c>
+      <c r="N91" t="n">
+        <v>-0.49</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
+        <v>90</v>
+      </c>
+      <c r="C92" t="n">
+        <v>90</v>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>MTLR</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>1731876819.4630625</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>1731876821.6343493</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>./test_images/MTLR1731876819.4630625.png</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>./test_images/MTLR1731876821.6343493.png</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
+        <v>105.91</v>
+      </c>
+      <c r="L92" t="n">
+        <v>105.87</v>
+      </c>
+      <c r="M92" t="n">
+        <v>-0.03999999999999204</v>
+      </c>
+      <c r="N92" t="n">
+        <v>-0.04</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>91</v>
+      </c>
+      <c r="C93" t="n">
+        <v>91</v>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>MTLR</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>1731876821.7041633</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>1731876822.774804</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>./test_images/MTLR1731876821.7041633.png</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>./test_images/MTLR1731876822.774804.png</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
+        <v>106</v>
+      </c>
+      <c r="L93" t="n">
+        <v>105.99</v>
+      </c>
+      <c r="M93" t="n">
+        <v>0.01000000000000512</v>
+      </c>
+      <c r="N93" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
+        <v>92</v>
+      </c>
+      <c r="C94" t="n">
+        <v>92</v>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>MTLR</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>1731876823.3939755</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>1731876824.0081525</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>./test_images/MTLR1731876823.3939755.png</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>./test_images/MTLR1731876824.0081525.png</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
+        <v>105.89</v>
+      </c>
+      <c r="L94" t="n">
+        <v>106.12</v>
+      </c>
+      <c r="M94" t="n">
+        <v>0.230000000000004</v>
+      </c>
+      <c r="N94" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="n">
+        <v>93</v>
+      </c>
+      <c r="C95" t="n">
+        <v>93</v>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>MTLR</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>1731876824.2167351</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>1731876824.4605827</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>./test_images/MTLR1731876824.2167351.png</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>./test_images/MTLR1731876824.4605827.png</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
+        <v>106.22</v>
+      </c>
+      <c r="L95" t="n">
+        <v>105.98</v>
+      </c>
+      <c r="M95" t="n">
+        <v>0.2399999999999949</v>
+      </c>
+      <c r="N95" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="n">
+        <v>94</v>
+      </c>
+      <c r="C96" t="n">
+        <v>94</v>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>BSPB</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>1731876826.5263696</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>1731876826.7957697</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>./test_images/BSPB1731876826.5263696.png</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>./test_images/BSPB1731876826.7957697.png</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
+        <v>348.69</v>
+      </c>
+      <c r="L96" t="n">
+        <v>348.96</v>
+      </c>
+      <c r="M96" t="n">
+        <v>0.2699999999999818</v>
+      </c>
+      <c r="N96" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="n">
+        <v>95</v>
+      </c>
+      <c r="C97" t="n">
+        <v>95</v>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>BSPB</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>1731876827.1195166</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>1731876827.2250223</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>./test_images/BSPB1731876827.1195166.png</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>./test_images/BSPB1731876827.2250223.png</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
+        <v>348.84</v>
+      </c>
+      <c r="L97" t="n">
+        <v>348.99</v>
+      </c>
+      <c r="M97" t="n">
+        <v>0.1500000000000341</v>
+      </c>
+      <c r="N97" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="n">
+        <v>96</v>
+      </c>
+      <c r="C98" t="n">
+        <v>96</v>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>BSPB</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>1731876827.2955554</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>1731876829.256553</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>./test_images/BSPB1731876827.2955554.png</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>./test_images/BSPB1731876829.256553.png</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
+        <v>349.22</v>
+      </c>
+      <c r="L98" t="n">
+        <v>350.03</v>
+      </c>
+      <c r="M98" t="n">
+        <v>-0.8099999999999454</v>
+      </c>
+      <c r="N98" t="n">
+        <v>-0.23</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="n">
+        <v>97</v>
+      </c>
+      <c r="C99" t="n">
+        <v>97</v>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>BSPB</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>1731876829.561573</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>1731876830.3539276</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>./test_images/BSPB1731876829.561573.png</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>./test_images/BSPB1731876830.3539276.png</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
+        <v>350.08</v>
+      </c>
+      <c r="L99" t="n">
+        <v>349.88</v>
+      </c>
+      <c r="M99" t="n">
+        <v>-0.1999999999999886</v>
+      </c>
+      <c r="N99" t="n">
+        <v>-0.06</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="n">
+        <v>98</v>
+      </c>
+      <c r="C100" t="n">
+        <v>98</v>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>BSPB</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>1731876831.5353312</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>1731876832.406848</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>./test_images/BSPB1731876831.5353312.png</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>./test_images/BSPB1731876832.406848.png</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
+        <v>350.24</v>
+      </c>
+      <c r="L100" t="n">
+        <v>349.56</v>
+      </c>
+      <c r="M100" t="n">
+        <v>0.6800000000000068</v>
+      </c>
+      <c r="N100" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="n">
+        <v>99</v>
+      </c>
+      <c r="C101" t="n">
+        <v>99</v>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>BSPB</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>1731876832.662667</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>1731876833.8619516</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>./test_images/BSPB1731876832.662667.png</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>./test_images/BSPB1731876833.8619516.png</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K101" t="n">
+        <v>350.35</v>
+      </c>
+      <c r="L101" t="n">
+        <v>350.1</v>
+      </c>
+      <c r="M101" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="N101" t="n">
+        <v>0.06999999999999999</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="n">
+        <v>100</v>
+      </c>
+      <c r="C102" t="n">
+        <v>100</v>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>BSPB</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>1731876834.366265</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>1731876841.7811723</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>./test_images/BSPB1731876834.366265.png</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>./test_images/BSPB1731876841.7811723.png</t>
+        </is>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K102" t="n">
+        <v>349.57</v>
+      </c>
+      <c r="L102" t="n">
+        <v>346.16</v>
+      </c>
+      <c r="M102" t="n">
+        <v>-3.409999999999968</v>
+      </c>
+      <c r="N102" t="n">
+        <v>-0.98</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="n">
+        <v>101</v>
+      </c>
+      <c r="C103" t="n">
+        <v>101</v>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>BSPB</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>1731876841.924552</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>1731876841.9902656</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>./test_images/BSPB1731876841.924552.png</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>./test_images/BSPB1731876841.9902656.png</t>
+        </is>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K103" t="n">
+        <v>346.44</v>
+      </c>
+      <c r="L103" t="n">
+        <v>346.32</v>
+      </c>
+      <c r="M103" t="n">
+        <v>0.1200000000000045</v>
+      </c>
+      <c r="N103" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="n">
+        <v>102</v>
+      </c>
+      <c r="C104" t="n">
+        <v>102</v>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>BSPB</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>1731876842.0839405</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>1731876842.2342687</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>./test_images/BSPB1731876842.0839405.png</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>./test_images/BSPB1731876842.2342687.png</t>
+        </is>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K104" t="n">
+        <v>346.15</v>
+      </c>
+      <c r="L104" t="n">
+        <v>346.66</v>
+      </c>
+      <c r="M104" t="n">
+        <v>0.5100000000000477</v>
+      </c>
+      <c r="N104" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="n">
+        <v>103</v>
+      </c>
+      <c r="C105" t="n">
+        <v>103</v>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>BSPB</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>1731876842.2757096</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>1731876842.3436675</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>./test_images/BSPB1731876842.2757096.png</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>./test_images/BSPB1731876842.3436675.png</t>
+        </is>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K105" t="n">
+        <v>346.8</v>
+      </c>
+      <c r="L105" t="n">
+        <v>346.36</v>
+      </c>
+      <c r="M105" t="n">
+        <v>0.4399999999999977</v>
+      </c>
+      <c r="N105" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
+        <v>104</v>
+      </c>
+      <c r="C106" t="n">
+        <v>104</v>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>BSPB</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>1731876843.4274254</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr"/>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>./test_images/BSPB1731876843.4274254.png</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr"/>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K106" t="n">
+        <v>347.05</v>
+      </c>
+      <c r="L106" t="n">
+        <v>347.25</v>
+      </c>
+      <c r="M106" t="n">
+        <v>-0.1999999999999886</v>
+      </c>
+      <c r="N106" t="n">
+        <v>-0.06</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>105</v>
+      </c>
+      <c r="C107" t="n">
+        <v>105</v>
+      </c>
+      <c r="D107" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>1731701161.884347</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>1731701162.1685839</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>./test_images/MXI1731701161.884347.png</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>./test_images/MXI1731701162.1685839.png</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>1731876844.9933</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>1731876846.6742277</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>./test_images/MXI1731876844.9933.png</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>./test_images/MXI1731876846.6742277.png</t>
+        </is>
+      </c>
+      <c r="I107" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K107" t="n">
+        <v>2793.4</v>
+      </c>
+      <c r="L107" t="n">
+        <v>2793.1</v>
+      </c>
+      <c r="M107" t="n">
+        <v>0.3000000000001819</v>
+      </c>
+      <c r="N107" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>106</v>
+      </c>
+      <c r="C108" t="n">
+        <v>106</v>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>1731876847.83225</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>1731876848.7517836</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>./test_images/MXI1731876847.83225.png</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>./test_images/MXI1731876848.7517836.png</t>
+        </is>
+      </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K108" t="n">
+        <v>2787.85</v>
+      </c>
+      <c r="L108" t="n">
+        <v>2793.45</v>
+      </c>
+      <c r="M108" t="n">
+        <v>5.599999999999909</v>
+      </c>
+      <c r="N108" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>107</v>
+      </c>
+      <c r="C109" t="n">
+        <v>107</v>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>1731876849.8677247</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>1731876851.968425</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>./test_images/MXI1731876849.8677247.png</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>./test_images/MXI1731876851.968425.png</t>
+        </is>
+      </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K109" t="n">
+        <v>2786.45</v>
+      </c>
+      <c r="L109" t="n">
+        <v>2785.4</v>
+      </c>
+      <c r="M109" t="n">
+        <v>-1.049999999999727</v>
+      </c>
+      <c r="N109" t="n">
+        <v>-0.04</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>108</v>
+      </c>
+      <c r="C110" t="n">
+        <v>108</v>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>1731876852.3005002</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>1731876853.00971</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>./test_images/MXI1731876852.3005002.png</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>./test_images/MXI1731876853.00971.png</t>
+        </is>
+      </c>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K110" t="n">
+        <v>2786.9</v>
+      </c>
+      <c r="L110" t="n">
+        <v>2785</v>
+      </c>
+      <c r="M110" t="n">
+        <v>1.900000000000091</v>
+      </c>
+      <c r="N110" t="n">
+        <v>0.06999999999999999</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>109</v>
+      </c>
+      <c r="C111" t="n">
+        <v>109</v>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>1731876854.420789</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>1731876854.4646583</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>./test_images/MXI1731876854.420789.png</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>./test_images/MXI1731876854.4646583.png</t>
+        </is>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K111" t="n">
+        <v>2783.45</v>
+      </c>
+      <c r="L111" t="n">
+        <v>2784.85</v>
+      </c>
+      <c r="M111" t="n">
+        <v>1.400000000000091</v>
+      </c>
+      <c r="N111" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>110</v>
+      </c>
+      <c r="C112" t="n">
+        <v>110</v>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>1731876855.9173057</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>1731876857.5969455</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>./test_images/MXI1731876855.9173057.png</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>./test_images/MXI1731876857.5969455.png</t>
+        </is>
+      </c>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K112" t="n">
+        <v>2776.05</v>
+      </c>
+      <c r="L112" t="n">
+        <v>2776.5</v>
+      </c>
+      <c r="M112" t="n">
+        <v>0.4499999999998181</v>
+      </c>
+      <c r="N112" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>111</v>
+      </c>
+      <c r="C113" t="n">
+        <v>111</v>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>1731876857.6127768</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>1731876857.6848392</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>./test_images/MXI1731876857.6127768.png</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>./test_images/MXI1731876857.6848392.png</t>
+        </is>
+      </c>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K113" t="n">
+        <v>2776.5</v>
+      </c>
+      <c r="L113" t="n">
+        <v>2776.25</v>
+      </c>
+      <c r="M113" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="N113" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>112</v>
+      </c>
+      <c r="C114" t="n">
+        <v>112</v>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>1731876859.5621004</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>1731876859.9767656</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>./test_images/MXI1731876859.5621004.png</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>./test_images/MXI1731876859.9767656.png</t>
+        </is>
+      </c>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K114" t="n">
+        <v>2775.4</v>
+      </c>
+      <c r="L114" t="n">
+        <v>2779.85</v>
+      </c>
+      <c r="M114" t="n">
+        <v>4.449999999999818</v>
+      </c>
+      <c r="N114" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>113</v>
+      </c>
+      <c r="C115" t="n">
+        <v>113</v>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>1731876862.1011784</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>1731876862.4006417</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>./test_images/MXI1731876862.1011784.png</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>./test_images/MXI1731876862.4006417.png</t>
+        </is>
+      </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K115" t="n">
         <v>2783</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L115" t="n">
         <v>2778.1</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M115" t="n">
         <v>4.900000000000091</v>
       </c>
-      <c r="L11" t="n">
+      <c r="N115" t="n">
         <v>0.18</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>114</v>
+      </c>
+      <c r="C116" t="n">
+        <v>114</v>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>TATN</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>1731876862.8731306</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>1731876863.053888</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>./test_images/TATN1731876862.8731306.png</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>./test_images/TATN1731876863.053888.png</t>
+        </is>
+      </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K116" t="n">
+        <v>596.5</v>
+      </c>
+      <c r="L116" t="n">
+        <v>597.6</v>
+      </c>
+      <c r="M116" t="n">
+        <v>1.100000000000023</v>
+      </c>
+      <c r="N116" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>115</v>
+      </c>
+      <c r="C117" t="n">
+        <v>115</v>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>TATN</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>1731876863.290095</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>1731876863.5708358</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>./test_images/TATN1731876863.290095.png</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>./test_images/TATN1731876863.5708358.png</t>
+        </is>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K117" t="n">
+        <v>599.1</v>
+      </c>
+      <c r="L117" t="n">
+        <v>597.7</v>
+      </c>
+      <c r="M117" t="n">
+        <v>1.399999999999977</v>
+      </c>
+      <c r="N117" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>116</v>
+      </c>
+      <c r="C118" t="n">
+        <v>116</v>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>TATN</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>1731876864.9878109</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>1731876868.6708891</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>./test_images/TATN1731876864.9878109.png</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>./test_images/TATN1731876868.6708891.png</t>
+        </is>
+      </c>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K118" t="n">
+        <v>596.3</v>
+      </c>
+      <c r="L118" t="n">
+        <v>592.5</v>
+      </c>
+      <c r="M118" t="n">
+        <v>-3.799999999999955</v>
+      </c>
+      <c r="N118" t="n">
+        <v>-0.64</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>117</v>
+      </c>
+      <c r="C119" t="n">
+        <v>117</v>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>TATN</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>1731876869.2222834</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>1731876870.6086838</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>./test_images/TATN1731876869.2222834.png</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>./test_images/TATN1731876870.6086838.png</t>
+        </is>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K119" t="n">
+        <v>592.7</v>
+      </c>
+      <c r="L119" t="n">
+        <v>593.4</v>
+      </c>
+      <c r="M119" t="n">
+        <v>-0.6999999999999318</v>
+      </c>
+      <c r="N119" t="n">
+        <v>-0.12</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>118</v>
+      </c>
+      <c r="C120" t="n">
+        <v>118</v>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>TATN</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>1731876871.5762615</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>1731876873.1006672</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>./test_images/TATN1731876871.5762615.png</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>./test_images/TATN1731876873.1006672.png</t>
+        </is>
+      </c>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K120" t="n">
+        <v>594.7</v>
+      </c>
+      <c r="L120" t="n">
+        <v>594.9</v>
+      </c>
+      <c r="M120" t="n">
+        <v>-0.1999999999999318</v>
+      </c>
+      <c r="N120" t="n">
+        <v>-0.03</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>119</v>
+      </c>
+      <c r="C121" t="n">
+        <v>119</v>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>TATN</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>1731876873.227103</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>1731876873.8009214</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>./test_images/TATN1731876873.227103.png</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>./test_images/TATN1731876873.8009214.png</t>
+        </is>
+      </c>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K121" t="n">
+        <v>594.7</v>
+      </c>
+      <c r="L121" t="n">
+        <v>594.5</v>
+      </c>
+      <c r="M121" t="n">
+        <v>-0.2000000000000455</v>
+      </c>
+      <c r="N121" t="n">
+        <v>-0.03</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>120</v>
+      </c>
+      <c r="C122" t="n">
+        <v>120</v>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>TATN</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>1731876874.0981553</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>1731876875.009567</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>./test_images/TATN1731876874.0981553.png</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>./test_images/TATN1731876875.009567.png</t>
+        </is>
+      </c>
+      <c r="I122" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K122" t="n">
+        <v>592.5</v>
+      </c>
+      <c r="L122" t="n">
+        <v>593.6</v>
+      </c>
+      <c r="M122" t="n">
+        <v>1.100000000000023</v>
+      </c>
+      <c r="N122" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>121</v>
+      </c>
+      <c r="C123" t="n">
+        <v>121</v>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>TATN</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>1731876875.527072</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>1731876875.905586</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>./test_images/TATN1731876875.527072.png</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>./test_images/TATN1731876875.905586.png</t>
+        </is>
+      </c>
+      <c r="I123" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K123" t="n">
+        <v>594.5</v>
+      </c>
+      <c r="L123" t="n">
+        <v>593.6</v>
+      </c>
+      <c r="M123" t="n">
+        <v>0.8999999999999773</v>
+      </c>
+      <c r="N123" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>122</v>
+      </c>
+      <c r="C124" t="n">
+        <v>122</v>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>TATN</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>1731876876.3440769</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>1731876878.2921169</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>./test_images/TATN1731876876.3440769.png</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>./test_images/TATN1731876878.2921169.png</t>
+        </is>
+      </c>
+      <c r="I124" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K124" t="n">
+        <v>593.6</v>
+      </c>
+      <c r="L124" t="n">
+        <v>592.3</v>
+      </c>
+      <c r="M124" t="n">
+        <v>-1.300000000000068</v>
+      </c>
+      <c r="N124" t="n">
+        <v>-0.22</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>123</v>
+      </c>
+      <c r="C125" t="n">
+        <v>123</v>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>TATN</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>1731876878.8255324</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>1731876879.7658978</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>./test_images/TATN1731876878.8255324.png</t>
+        </is>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>./test_images/TATN1731876879.7658978.png</t>
+        </is>
+      </c>
+      <c r="I125" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K125" t="n">
+        <v>589.9</v>
+      </c>
+      <c r="L125" t="n">
+        <v>590.6</v>
+      </c>
+      <c r="M125" t="n">
+        <v>0.7000000000000455</v>
+      </c>
+      <c r="N125" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>124</v>
+      </c>
+      <c r="C126" t="n">
+        <v>124</v>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>TATN</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>1731876880.034043</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr"/>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>./test_images/TATN1731876880.034043.png</t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr"/>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K126" t="n">
+        <v>588.9</v>
+      </c>
+      <c r="L126" t="n">
+        <v>588.8</v>
+      </c>
+      <c r="M126" t="n">
+        <v>-0.1000000000000227</v>
+      </c>
+      <c r="N126" t="n">
+        <v>-0.02</v>
       </c>
     </row>
   </sheetData>
@@ -1014,7 +7698,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1057,42 +7741,284 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>MXI</t>
+          <t>LKOH</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>18.20000000000027</v>
+        <v>24.5</v>
       </c>
       <c r="C2" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D2" t="n">
-        <v>2.022222222222252</v>
+        <v>1.633333333333333</v>
       </c>
       <c r="E2" t="n">
-        <v>0.66</v>
+        <v>0.36</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
+          <t>AFKS</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.4540000000000024</v>
+      </c>
+      <c r="C3" t="n">
+        <v>14</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.0324285714285716</v>
+      </c>
+      <c r="E3" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>BSPB</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>-2.199999999999818</v>
+      </c>
+      <c r="C4" t="n">
+        <v>11</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-0.1999999999999835</v>
+      </c>
+      <c r="E4" t="n">
+        <v>-0.64</v>
+      </c>
+      <c r="F4" t="n">
+        <v>-0.06</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>MTLR</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>-0.1199999999999761</v>
+      </c>
+      <c r="C5" t="n">
+        <v>11</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-0.01090909090908874</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-0.11</v>
+      </c>
+      <c r="F5" t="n">
+        <v>-0.01</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>ROSN</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>-5.050000000000068</v>
+      </c>
+      <c r="C6" t="n">
+        <v>11</v>
+      </c>
+      <c r="D6" t="n">
+        <v>-0.4590909090909153</v>
+      </c>
+      <c r="E6" t="n">
+        <v>-1.03</v>
+      </c>
+      <c r="F6" t="n">
+        <v>-0.09</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>TATN</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>-1.099999999999909</v>
+      </c>
+      <c r="C7" t="n">
+        <v>11</v>
+      </c>
+      <c r="D7" t="n">
+        <v>-0.09999999999999173</v>
+      </c>
+      <c r="E7" t="n">
+        <v>-0.19</v>
+      </c>
+      <c r="F7" t="n">
+        <v>-0.02</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>CHMF</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>7.199999999999591</v>
+      </c>
+      <c r="C8" t="n">
+        <v>10</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.7199999999999591</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.5700000000000001</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>GAZP</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.1499999999999773</v>
+      </c>
+      <c r="C9" t="n">
+        <v>9</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.01666666666666414</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>MAGN</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.144999999999996</v>
+      </c>
+      <c r="C10" t="n">
+        <v>9</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.01611111111111067</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>18.20000000000027</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="n">
+        <v>2.022222222222252</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>NVTK</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>-12</v>
+      </c>
+      <c r="C12" t="n">
+        <v>8</v>
+      </c>
+      <c r="D12" t="n">
+        <v>-1.5</v>
+      </c>
+      <c r="E12" t="n">
+        <v>-1.26</v>
+      </c>
+      <c r="F12" t="n">
+        <v>-0.16</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>VTBR</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>-0.289999999999992</v>
+      </c>
+      <c r="C13" t="n">
+        <v>6</v>
+      </c>
+      <c r="D13" t="n">
+        <v>-0.04833333333333201</v>
+      </c>
+      <c r="E13" t="n">
+        <v>-0.36</v>
+      </c>
+      <c r="F13" t="n">
+        <v>-0.06</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="B14" t="n">
         <v>0</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C14" t="n">
         <v>0</v>
       </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="n">
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="n">
         <v>0</v>
       </c>
-      <c r="F3" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
